--- a/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Tujuan Pembelajaran.xlsx
+++ b/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Tujuan Pembelajaran.xlsx
@@ -28,12 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Mata Pelajaran</t>
   </si>
   <si>
     <t>Fase</t>
+  </si>
+  <si>
+    <t>Nomor</t>
   </si>
   <si>
     <t>Deskripsi</t>
@@ -43,11 +46,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,###.##000_);_(* \(#,###.##000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #.##0_);_(* \(#.##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -667,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +680,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1211,20 +1227,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="53.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
-    <col min="3" max="3" width="42.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="85.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,29 +1251,36 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="txDb9qlHjn37fV5fnazJI9cPkuT/rBrpZUZpy7U4zgyEV1HAVvUzJKz/bT34JPdZZDNBrhO5KI7q7gpbCfHMow==" saltValue="RP/mfzPoRT04RDVSCHf87w==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hOXTblecemzLtduuettg3QNCKm7nohF6eR2XYdmo/duSsqV9sn/4ymfbKKqurfu9fmXyBTcwW6FHcBQeVDvg0g==" saltValue="hpozJBvwLdy1tEazsJKASA==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"E,F"</formula1>

--- a/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Tujuan Pembelajaran.xlsx
+++ b/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Tujuan Pembelajaran.xlsx
@@ -51,7 +51,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #.##0_);_(* \(#.##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1280,10 +1280,13 @@
       <c r="D5" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hOXTblecemzLtduuettg3QNCKm7nohF6eR2XYdmo/duSsqV9sn/4ymfbKKqurfu9fmXyBTcwW6FHcBQeVDvg0g==" saltValue="hpozJBvwLdy1tEazsJKASA==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
-  <dataValidations count="1">
+  <sheetProtection algorithmName="SHA-512" hashValue="gQXPUUjSuG1RVATadoGOEKPq4ygqxwr2KC5fHeuQPLQe15cbFbqtkuvBPQsXq9tBrGbzjUTCdPKbfJokN+747A==" saltValue="Ws7RmvXpCoi4rVDCg30baQ==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"E,F"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+      <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Tujuan Pembelajaran.xlsx
+++ b/src/SIAkademik/SIAkademik.Web/wwwroot/file/importTemplate/Template Import Data Tujuan Pembelajaran.xlsx
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1280,12 +1280,12 @@
       <c r="D5" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gQXPUUjSuG1RVATadoGOEKPq4ygqxwr2KC5fHeuQPLQe15cbFbqtkuvBPQsXq9tBrGbzjUTCdPKbfJokN+747A==" saltValue="Ws7RmvXpCoi4rVDCg30baQ==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vm+Gx2BlLeNA7pusO7slVNE327NnTSbSfco3mHYr8zTzBiE4Ea1aWavOAikGn/YHN11Y2idgjLXhJMbawbWPRA==" saltValue="p+JnN2d8G/GmWxiA0PdDWg==" spinCount="100000" sheet="1" insertRows="0" deleteRows="0" objects="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"E,F"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
